--- a/medicine/Mort/Isabelle_la_Catholique_dictant_son_testament/Isabelle_la_Catholique_dictant_son_testament.xlsx
+++ b/medicine/Mort/Isabelle_la_Catholique_dictant_son_testament/Isabelle_la_Catholique_dictant_son_testament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle la Catholique dictant son testament (en espagnol : Doña Isabel la católica dictando su testamento), réalisée en 1864, est probablement l'œuvre la plus connue du peintre espagnol Eduardo Rosales.
 </t>
@@ -511,7 +523,9 @@
           <t>Provenance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle appartient au Musée du Prado de Madrid, depuis son acquisition en 1865. Après avoir été cédée au Musée d'Art Moderne (es), elle revint au Prado en 1971 à la suite de la réception des œuvres du XIXe siècle que possédait le M.A.M. après sa dissolution. Le tableau est exposé au public dans la salle 61B.
 </t>
@@ -542,9 +556,11 @@
           <t>Description et analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette peinture d'histoire ou peinture historique, représente le moment où la reine Isabelle dicte son testament [1], en octobre 1504, à Medina del Campo. Inscrit dans le cadre de la peinture d'histoire académique de la période romantique, son style est cependant plus réaliste que celui des œuvres précédentes de Rosales. Réalisée à Paris, il la présenta à l'Exposition nationale des beaux-arts de Madrid en 1864, où il obtient la médaille de première classe pour cette œuvre[2], puis à l'Exposition universelle de 1867 de Paris. Il revint ensuite à Rome, où il reçut un télégramme de ses amis, le paysagiste Martín Rico et Raimundo de Madrazo qui lui annoncèrent le succès atteint par son tableau : première médaille d'or pour les étrangers. La Légion d'honneur lui fut accordée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette peinture d'histoire ou peinture historique, représente le moment où la reine Isabelle dicte son testament , en octobre 1504, à Medina del Campo. Inscrit dans le cadre de la peinture d'histoire académique de la période romantique, son style est cependant plus réaliste que celui des œuvres précédentes de Rosales. Réalisée à Paris, il la présenta à l'Exposition nationale des beaux-arts de Madrid en 1864, où il obtient la médaille de première classe pour cette œuvre, puis à l'Exposition universelle de 1867 de Paris. Il revint ensuite à Rome, où il reçut un télégramme de ses amis, le paysagiste Martín Rico et Raimundo de Madrazo qui lui annoncèrent le succès atteint par son tableau : première médaille d'or pour les étrangers. La Légion d'honneur lui fut accordée.
 </t>
         </is>
       </c>
